--- a/biology/Médecine/Jean_Martinet_de_Fonblanche/Jean_Martinet_de_Fonblanche.xlsx
+++ b/biology/Médecine/Jean_Martinet_de_Fonblanche/Jean_Martinet_de_Fonblanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Martinet de Fonblanche (1645-1701) est un chirurgien qui commença sa carrière à l'Hôtel-Dieu de Montréal, en 1681.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire de Moutiers-Saint-Jean, il faisait partie d'une initiative pour renforcer et développer Montréal. La Société Notre-Dame de Montréal, qui était responsable de la fondation de Ville-Marie, avait promis des soins de santé gratuits pour les habitants. Il était aussi expert-médico légal. 
 Il a apprisle métier à Paul Prud'homme, qui débuta le 15 janvier 1674, et François Tardy le 16 décembre de la même année, ainsi qu’à d'autres résidents de 1686 à 1691.
@@ -543,7 +557,9 @@
           <t>Vie personnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 14 juillet 1670 à Montréal, il a épousé Marguerite Prud’homme, âgée de 14 ans, la fille de Roberte Gadoys et de Louis Prud'homme, brasseur et capitaine de la milice. Ils eurent deux enfants de cette union.
 </t>
